--- a/verif/CV32E40P/SimulationVerificationPlan/debug-trace/CV32E40P_debug.xlsx
+++ b/verif/CV32E40P/SimulationVerificationPlan/debug-trace/CV32E40P_debug.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\silabs.com\design\home\oyknause\openhw\core-v-docs\verif\CV32E40P\SimulationVerificationPlan\debug-trace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497D92F1-ECA8-4AF0-8B34-D6EB45596610}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608A73AC-D927-46E5-A393-51AB794F4E0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23280" yWindow="-6288" windowWidth="44280" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,6 +35,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={D9EEDE3E-E072-4C98-B246-19B316E078C6}</author>
+    <author>tc={05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}</author>
     <author>tc={BA1AC254-BC56-45F6-939F-6147CCC4C4EF}</author>
     <author>tc={3E8FC26E-988D-433F-B2EE-92366FB68F86}</author>
     <author>tc={0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}</author>
@@ -63,7 +64,17 @@
     Team decided to keep it here.</t>
       </text>
     </comment>
-    <comment ref="E18" authorId="1" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+    <comment ref="E8" authorId="1" shapeId="0" xr:uid="{05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    This is covered in Exceptions Vplan.  If it is already covered by debug_test (or related), let's keep with here with an acknowledgement that it is also in Exceptions.  Otherwise, we can strike it from this Vplan.
+Reply:
+    Team decided to keep it here.</t>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="2" shapeId="0" xr:uid="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -73,7 +84,7 @@
     Redundant but already here, soo we will leave it.</t>
       </text>
     </comment>
-    <comment ref="E20" authorId="2" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+    <comment ref="E22" authorId="3" shapeId="0" xr:uid="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -81,7 +92,7 @@
     I like Paul's suggested re-wording.</t>
       </text>
     </comment>
-    <comment ref="E22" authorId="3" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+    <comment ref="E24" authorId="4" shapeId="0" xr:uid="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -91,7 +102,7 @@
     yes</t>
       </text>
     </comment>
-    <comment ref="F28" authorId="4" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+    <comment ref="F30" authorId="5" shapeId="0" xr:uid="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -101,7 +112,7 @@
     Done</t>
       </text>
     </comment>
-    <comment ref="E31" authorId="5" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+    <comment ref="E33" authorId="6" shapeId="0" xr:uid="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -111,7 +122,7 @@
     No privl levels - used PZ wording</t>
       </text>
     </comment>
-    <comment ref="F33" authorId="6" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+    <comment ref="F35" authorId="7" shapeId="0" xr:uid="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -121,7 +132,7 @@
     Boils down to : execute fence instruction while in debug mode.</t>
       </text>
     </comment>
-    <comment ref="E35" authorId="7" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+    <comment ref="E37" authorId="8" shapeId="0" xr:uid="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -131,7 +142,7 @@
     agreed</t>
       </text>
     </comment>
-    <comment ref="E36" authorId="8" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+    <comment ref="E38" authorId="9" shapeId="0" xr:uid="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -141,7 +152,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E37" authorId="9" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+    <comment ref="E39" authorId="10" shapeId="0" xr:uid="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -151,7 +162,7 @@
     Agreed.</t>
       </text>
     </comment>
-    <comment ref="E38" authorId="10" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
+    <comment ref="E40" authorId="11" shapeId="0" xr:uid="{8D03C130-0376-4058-ACC4-1AFE35483BC5}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -159,7 +170,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="E40" authorId="11" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
+    <comment ref="E42" authorId="12" shapeId="0" xr:uid="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -167,7 +178,7 @@
     Strike it?</t>
       </text>
     </comment>
-    <comment ref="G42" authorId="12" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+    <comment ref="G44" authorId="13" shapeId="0" xr:uid="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -177,7 +188,7 @@
     No, the random test already does that.</t>
       </text>
     </comment>
-    <comment ref="F45" authorId="13" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+    <comment ref="F47" authorId="14" shapeId="0" xr:uid="{359070A5-02B6-4A16-8859-1CF1672E058F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -187,7 +198,7 @@
     Oystein to update test - may already be done.</t>
       </text>
     </comment>
-    <comment ref="E59" authorId="14" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
+    <comment ref="E61" authorId="15" shapeId="0" xr:uid="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -195,7 +206,7 @@
     Strike the bit about priv level.</t>
       </text>
     </comment>
-    <comment ref="E61" authorId="15" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
+    <comment ref="E63" authorId="16" shapeId="0" xr:uid="{DBF077C8-A084-4C20-8E27-8023879A0FAD}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -203,7 +214,7 @@
     Agree with Paul.  Recommend we strike this Feature from the Vplan.</t>
       </text>
     </comment>
-    <comment ref="F70" authorId="16" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
+    <comment ref="F72" authorId="17" shapeId="0" xr:uid="{330593C8-663F-4984-BA49-9E72F46FD622}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -218,7 +229,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="523" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="220">
   <si>
     <t>Requirement Location</t>
   </si>
@@ -1114,9 +1125,6 @@
     <t>Enter ebreak exception</t>
   </si>
   <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>[PZ] Have trigger address match an instruction that has an illegal instruction (both in normal and single step mode). Ensure debug is enterred with cause set to trigger and PC is set to exception handler prior to debug entry</t>
   </si>
   <si>
@@ -1656,19 +1664,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Coverage</t>
-  </si>
-  <si>
-    <t>Add EBREAK or/and C.EBREAK to arbitrary exception code
-Verify that:
-Core switches into debug mode.
-PC of EBREAK instruction must be saved to DPC
-Cause of debug must be saved to DCSR (cause=1)
-PC is updated to value on dm_haltaddr_i input
-Core starts executing debug code
-Ensure exception routine is not entered</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2016,77 +2011,6 @@
       <t xml:space="preserve"> debug mode on breakpoint addr
 </t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Accessing the trigger module registers - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>tselect, tdata1/2/3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> while </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>NOT</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> in debug mode causes an illegal instruction
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This has been changed in the CV32E40P specification to be compliant with debug spec</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. SW can read these trigger CSRs in non-debug mode, but cannot write to these CSRs. Also add in TINFO (this was a reent change)</t>
-    </r>
-  </si>
-  <si>
-    <t>Access all trigger module registers in M-mode and observe that illegal instruction exception is triggered.
-Writes to trigger CSRs in non-debug mode are ignored. Reads of trigger CSRs reflect updated values.</t>
   </si>
   <si>
     <t>While in debug mode and executing from the program buffer, all interrupts are masked.</t>
@@ -2962,13 +2886,6 @@
 CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_with_ebreakm
 CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_with_ebreakm
 A  :uvmt_cv32_tb.u_debug_assert.a_cebreak_debug_mode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm
-CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm
-A: uvmt_cv32_tb.u_debug_assert.a_ebreak_exception
-A: uvmt_cv32_tb.u_debug_assert.a.cebreak_exception</t>
   </si>
   <si>
     <t>CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_debug_mode_ext
@@ -3016,9 +2933,6 @@
 CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_with_ebreakm (.ebreak_in_debug)
 A:   uvmt_cv32_tb.u_debug_assert.a_ebreak_during_debug_mode
 A:   uvmt_cv32_tb.u_debug_assert.a_cebreak_during_debug_mode</t>
-  </si>
-  <si>
-    <t>dpc/dscr not checked for change</t>
   </si>
   <si>
     <r>
@@ -3108,9 +3022,6 @@
 A:   uvmt_cv32_tb.u_debug_assert.a_debug_mode_exception</t>
   </si>
   <si>
-    <t>Only illegal insn in  A</t>
-  </si>
-  <si>
     <t>If a debug_req_i is asserted when an illegal instructions is being executed, the address of the trap handler must be stored to dpc instead of the address of the illegal instruction</t>
   </si>
   <si>
@@ -3150,9 +3061,6 @@
     <t>A: uvmt_cv32_tb.u_debug_assert.a_illegal_insn_debug_req</t>
   </si>
   <si>
-    <t>Covered in DTC debug_test_trigger</t>
-  </si>
-  <si>
     <t>Covered in DTC "debug_test_trigger"</t>
   </si>
   <si>
@@ -3161,18 +3069,120 @@
   <si>
     <t>Partly covered in DTC "debug_test" and "debug_test_trigger", the rest will be covered by corev_rand_debug_ebreak and corev_rand_debug_single_step</t>
   </si>
+  <si>
+    <t>Enter ebreak exception during single stepping</t>
+  </si>
+  <si>
+    <t>Add EBREAK or/and C.EBREAK to arbitrary code
+Verify that:
+Core switches into debug mode.
+PC of EBREAK instruction must be saved to DPC
+Cause of debug must be saved to DCSR (cause=1)
+PC is updated to value on dm_haltaddr_i input
+Core starts executing debug code
+Ensure exception routine is not entered</t>
+  </si>
+  <si>
+    <t>Add EBREAK or/and C.EBREAK to arbitrary single stepping code
+Verify that:
+Core switches into debug mode.
+PC of EBREAK instruction must be saved to DPC
+Cause of debug must be saved to DCSR (cause=1)
+PC is updated to value on dm_haltaddr_i input
+Core starts executing debug code
+Ensure exception routine is not entered</t>
+  </si>
+  <si>
+    <t>Covered in DTC "debug_test_known_miscompares"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm (ebreak_regular_nodebug)
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm (cebreak_regular_nodebug)
+A: uvmt_cv32_tb.u_debug_assert.a_ebreak_exception
+A: uvmt_cv32_tb.u_debug_assert.a.cebreak_exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_ebreak_execute_without_ebreakm (ebreak_step_nodebug)
+CG: uvm_pkg.uvm_test_top.env.cov_model.debug_covg.cg_cebreak_execute_without_ebreakm (cebreak_step_nodebug)
+A: uvmt_cv32_tb.u_debug_assert.a_ebreak_exception
+A: uvmt_cv32_tb.u_debug_assert.a.cebreak_exception</t>
+  </si>
+  <si>
+    <t>Covered in DTC debug_test_known_miscompares</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Accessing the trigger module registers - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tselect, tdata1/2/3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are readable from M-mode, but not writeable.</t>
+    </r>
+  </si>
+  <si>
+    <t>Access all trigger module registers in M-mode and observe writes have no effects and reads should reflect register content.
+Access registers from D-mode and observe full R/W access.</t>
+  </si>
+  <si>
+    <t>External debug request</t>
+  </si>
+  <si>
+    <t>Startup / clock gating</t>
+  </si>
+  <si>
+    <t>When the reset signal is deasserted, but before the fetch_enable_i signal is active, the internal clock of the core is gated. An issue in the cv32e40p repo describes a scenario where a short pulse of debug_req_i could be missed due to the clock gating.</t>
+  </si>
+  <si>
+    <t>Assert short (1 cycle) debug_req_i randomly after reset, before the core starts executing. Observe that the core enters debug mode without executing any instructions prior to entry.</t>
+  </si>
+  <si>
+    <t>Covered in DTC debug_test_boot_set</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="38" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3483,101 +3493,127 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3585,64 +3621,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4041,85 +4067,91 @@
   <threadedComment ref="E6" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A0064B0B-E77B-42FB-A2EC-648A5B3F131D}" parentId="{D9EEDE3E-E072-4C98-B246-19B316E078C6}">
     <text>Team decided to keep it here.</text>
   </threadedComment>
-  <threadedComment ref="E18" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
+  <threadedComment ref="E8" dT="2020-09-24T16:50:23.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}" done="1">
+    <text>This is covered in Exceptions Vplan.  If it is already covered by debug_test (or related), let's keep with here with an acknowledgement that it is also in Exceptions.  Otherwise, we can strike it from this Vplan.</text>
+  </threadedComment>
+  <threadedComment ref="E8" dT="2020-09-30T13:17:06.19" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A80BA0DD-50BE-48F8-9FC2-61B76D0F08E8}" parentId="{05D62CA5-E1D2-41FE-9ABC-295647FBFDAB}">
+    <text>Team decided to keep it here.</text>
+  </threadedComment>
+  <threadedComment ref="E20" dT="2020-09-24T16:55:04.12" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}" done="1">
     <text>This is already covered in the CSR Vplan.   Suggest we strike it from this Vplan.</text>
   </threadedComment>
-  <threadedComment ref="E18" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
+  <threadedComment ref="E20" dT="2020-09-30T13:18:41.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3BF6FA3E-FAF4-478E-85E9-6205296B01C9}" parentId="{BA1AC254-BC56-45F6-939F-6147CCC4C4EF}">
     <text>Redundant but already here, soo we will leave it.</text>
   </threadedComment>
-  <threadedComment ref="E20" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
+  <threadedComment ref="E22" dT="2020-09-24T16:57:01.54" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{3E8FC26E-988D-433F-B2EE-92366FB68F86}">
     <text>I like Paul's suggested re-wording.</text>
   </threadedComment>
-  <threadedComment ref="E22" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
+  <threadedComment ref="E24" dT="2020-09-24T16:53:52.20" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E22" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
+  <threadedComment ref="E24" dT="2020-09-30T13:25:11.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{2F5A1AE8-17CB-4809-9BBC-4658D9626781}" parentId="{0EDB5E57-62AF-4FD5-98B9-C2C3C8F6EDFD}">
     <text>yes</text>
   </threadedComment>
-  <threadedComment ref="F28" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
+  <threadedComment ref="F30" dT="2020-09-24T16:59:11.45" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8859A4C9-6A41-4816-B62E-43D40684F8F2}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="F28" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
+  <threadedComment ref="F30" dT="2020-09-30T13:25:59.46" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14A99125-C214-42BC-9CBF-4BFF9258C81D}" parentId="{8859A4C9-6A41-4816-B62E-43D40684F8F2}">
     <text>Done</text>
   </threadedComment>
-  <threadedComment ref="E31" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
+  <threadedComment ref="E33" dT="2020-09-24T18:24:13.37" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}" done="1">
     <text>These two statements seem incompatible...</text>
   </threadedComment>
-  <threadedComment ref="E31" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
+  <threadedComment ref="E33" dT="2020-09-30T13:27:53.85" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{7AB65A33-1A15-4445-9245-4D95F9A28763}" parentId="{696F24EF-A25C-4C0F-9C1F-E26C4D6ADB99}">
     <text>No privl levels - used PZ wording</text>
   </threadedComment>
-  <threadedComment ref="F33" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F35" dT="2020-09-24T18:25:18.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Where are we on this?</text>
   </threadedComment>
-  <threadedComment ref="F33" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
+  <threadedComment ref="F35" dT="2020-09-30T13:30:53.84" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{47003926-6041-4466-90A2-2C10C5C85296}" parentId="{59B81C10-2E3A-459C-938F-6E655752D0DE}">
     <text>Boils down to : execute fence instruction while in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="E35" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
+  <threadedComment ref="E37" dT="2020-09-24T18:30:19.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{AA8182C6-5B9E-4486-B389-DB07B4061F09}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E35" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
+  <threadedComment ref="E37" dT="2020-09-30T13:31:48.03" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{E2660D4C-ABB0-4A74-8E26-618F8054984D}" parentId="{AA8182C6-5B9E-4486-B389-DB07B4061F09}">
     <text>agreed</text>
   </threadedComment>
-  <threadedComment ref="E36" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
+  <threadedComment ref="E38" dT="2020-09-24T18:30:28.40" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E36" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
+  <threadedComment ref="E38" dT="2020-09-30T13:32:19.99" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{14422222-B948-462F-AB79-03264D9DD8D6}" parentId="{B0D3999A-BAC7-49C0-9621-C5108BB89FF3}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E37" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
+  <threadedComment ref="E39" dT="2020-09-24T18:30:34.82" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E37" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
+  <threadedComment ref="E39" dT="2020-09-30T13:32:40.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{0284E229-AC40-4DE7-B509-C230FD082319}" parentId="{D7AD3D38-4F64-44C8-B599-1BFD5031537B}">
     <text>Agreed.</text>
   </threadedComment>
-  <threadedComment ref="E38" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
+  <threadedComment ref="E40" dT="2020-09-24T18:31:32.23" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8D03C130-0376-4058-ACC4-1AFE35483BC5}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="E40" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
+  <threadedComment ref="E42" dT="2020-09-24T18:31:54.00" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{B1615ACF-B7D6-4DA4-BEE1-364DDA004D00}" done="1">
     <text>Strike it?</text>
   </threadedComment>
-  <threadedComment ref="G42" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
+  <threadedComment ref="G44" dT="2020-09-24T18:33:02.27" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}" done="1">
     <text>Strike the random test?</text>
   </threadedComment>
-  <threadedComment ref="G42" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
+  <threadedComment ref="G44" dT="2020-09-30T13:34:31.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{ED00C003-ADD3-4337-A61F-D4F72597A94A}" parentId="{A3946FF6-341C-4C07-9E6E-ABBE0514D51F}">
     <text>No, the random test already does that.</text>
   </threadedComment>
-  <threadedComment ref="F45" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
+  <threadedComment ref="F47" dT="2020-09-24T18:34:22.08" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{359070A5-02B6-4A16-8859-1CF1672E058F}" done="1">
     <text>Agree with Paul's suggestion (very clever).</text>
   </threadedComment>
-  <threadedComment ref="F45" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
+  <threadedComment ref="F47" dT="2020-09-30T13:35:41.79" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{18F9F807-0A03-4BDC-94E3-F905A81B75E9}" parentId="{359070A5-02B6-4A16-8859-1CF1672E058F}">
     <text>Oystein to update test - may already be done.</text>
   </threadedComment>
-  <threadedComment ref="E59" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
+  <threadedComment ref="E61" dT="2020-09-24T18:40:37.04" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{8CB1A87A-242D-410A-8CAA-1DA20AFC8D25}" done="1">
     <text>Strike the bit about priv level.</text>
   </threadedComment>
-  <threadedComment ref="E61" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
+  <threadedComment ref="E63" dT="2020-09-24T18:41:13.72" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{DBF077C8-A084-4C20-8E27-8023879A0FAD}" done="1">
     <text>Agree with Paul.  Recommend we strike this Feature from the Vplan.</text>
   </threadedComment>
-  <threadedComment ref="F70" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
+  <threadedComment ref="F72" dT="2020-09-24T18:43:39.52" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{330593C8-663F-4984-BA49-9E72F46FD622}" done="1">
     <text>Interesting.   I will take this one.  Not sure of the mechanics, but should be able to figure it out.  The extension would be to run any randomly generated test-program in debug mode.</text>
   </threadedComment>
-  <threadedComment ref="F70" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
+  <threadedComment ref="F72" dT="2020-09-30T13:54:53.53" personId="{EE546B9F-DA33-4E28-991F-1980E192685E}" id="{EBD10753-F33F-41FF-8334-571D8778E2AA}" parentId="{330593C8-663F-4984-BA49-9E72F46FD622}">
     <text>Better idea: cross coverage of debug mode entry and instruction executed</text>
   </threadedComment>
 </ThreadedComments>
@@ -4128,11 +4160,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:AMT116"/>
+  <dimension ref="A1:AMT118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J79" sqref="J79"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4161,42 +4193,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1034" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="21" t="s">
         <v>7</v>
       </c>
       <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>112</v>
-      </c>
+      <c r="K1" s="25"/>
+      <c r="L1" s="1"/>
       <c r="M1"/>
       <c r="N1"/>
       <c r="O1"/>
@@ -4206,23 +4234,23 @@
       <c r="S1" s="13"/>
     </row>
     <row r="2" spans="1:1034" s="4" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="47" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="47" t="s">
         <v>129</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>130</v>
       </c>
       <c r="G2" s="19" t="s">
         <v>10</v>
@@ -4233,11 +4261,8 @@
       <c r="I2" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="4">
-        <v>100</v>
+      <c r="J2" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
@@ -4248,12 +4273,12 @@
       <c r="S2" s="14"/>
     </row>
     <row r="3" spans="1:1034" s="4" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
       <c r="G3" s="19" t="s">
         <v>24</v>
       </c>
@@ -4263,8 +4288,8 @@
       <c r="I3" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="24" t="s">
-        <v>170</v>
+      <c r="J3" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
@@ -4275,23 +4300,23 @@
       <c r="S3" s="14"/>
     </row>
     <row r="4" spans="1:1034" s="4" customFormat="1" ht="95.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="38" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>138</v>
+      <c r="E4" s="47" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="47" t="s">
+        <v>135</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>10</v>
@@ -4302,11 +4327,8 @@
       <c r="I4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K4" s="4">
-        <v>100</v>
+      <c r="J4" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="L4"/>
       <c r="M4"/>
@@ -4314,15 +4336,15 @@
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
-      <c r="R4" s="27"/>
+      <c r="R4" s="26"/>
     </row>
     <row r="5" spans="1:1034" s="4" customFormat="1" ht="95.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="19" t="s">
         <v>24</v>
       </c>
@@ -4332,8 +4354,8 @@
       <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="27" t="s">
-        <v>169</v>
+      <c r="J5" s="26" t="s">
+        <v>164</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
@@ -4343,109 +4365,104 @@
       <c r="Q5"/>
     </row>
     <row r="6" spans="1:1034" s="4" customFormat="1" ht="113.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="49" t="s">
+      <c r="E6" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="60" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="20" t="s">
+      <c r="I6" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K6" s="4">
-        <v>100</v>
-      </c>
-      <c r="L6"/>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="14"/>
+      <c r="J6" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="35"/>
     </row>
-    <row r="7" spans="1:1034" s="4" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="20" t="s">
+    <row r="7" spans="1:1034" s="4" customFormat="1" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="47"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
-      <c r="Q7"/>
-      <c r="S7" s="14"/>
+      <c r="J7" s="34" t="s">
+        <v>210</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="S7" s="35"/>
     </row>
     <row r="8" spans="1:1034" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="A8" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>206</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="59" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K8" s="4">
-        <v>100</v>
-      </c>
+      <c r="J8" s="44" t="s">
+        <v>209</v>
+      </c>
+      <c r="K8" s="4"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -4455,24 +4472,24 @@
       <c r="R8" s="4"/>
       <c r="S8" s="14"/>
     </row>
-    <row r="9" spans="1:1034" s="3" customFormat="1" ht="88.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="19" t="s">
+    <row r="9" spans="1:1034" s="3" customFormat="1" ht="108.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="H9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>172</v>
+      <c r="J9" s="34" t="s">
+        <v>211</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9"/>
@@ -4485,23 +4502,23 @@
       <c r="S9" s="14"/>
     </row>
     <row r="10" spans="1:1034" s="3" customFormat="1" ht="76.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>108</v>
+      <c r="A10" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>132</v>
       </c>
       <c r="G10" s="19" t="s">
         <v>10</v>
@@ -4512,12 +4529,10 @@
       <c r="I10" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="K10" s="7">
-        <v>100</v>
-      </c>
+      <c r="J10" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K10" s="4"/>
       <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
@@ -4528,12 +4543,12 @@
       <c r="S10" s="14"/>
     </row>
     <row r="11" spans="1:1034" s="3" customFormat="1" ht="175.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
       <c r="G11" s="19" t="s">
         <v>24</v>
       </c>
@@ -4544,9 +4559,9 @@
         <v>21</v>
       </c>
       <c r="J11" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="K11" s="7"/>
+        <v>166</v>
+      </c>
+      <c r="K11" s="4"/>
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -4570,26 +4585,24 @@
         <v>33</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>139</v>
+        <v>86</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="G12" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="52" t="s">
-        <v>212</v>
-      </c>
-      <c r="K12" s="7">
-        <v>100</v>
-      </c>
+      <c r="J12" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="7"/>
@@ -5615,17 +5628,17 @@
       <c r="D13" s="47"/>
       <c r="E13" s="47"/>
       <c r="F13" s="47"/>
-      <c r="G13" s="30" t="s">
+      <c r="G13" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="30" t="s">
+      <c r="H13" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="28" t="s">
-        <v>174</v>
+      <c r="J13" s="19" t="s">
+        <v>167</v>
       </c>
       <c r="K13" s="7"/>
       <c r="R13" s="7"/>
@@ -6647,37 +6660,37 @@
       <c r="AMT13" s="7"/>
     </row>
     <row r="14" spans="1:1034" s="3" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>104</v>
-      </c>
-      <c r="G14" s="19" t="s">
+      <c r="A14" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="19" t="s">
+      <c r="H14" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="19" t="s">
+      <c r="I14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K14" s="7">
-        <v>100</v>
-      </c>
+      <c r="J14" s="38" t="s">
+        <v>203</v>
+      </c>
+      <c r="K14" s="7"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
@@ -6687,28 +6700,26 @@
       <c r="S14" s="14"/>
     </row>
     <row r="15" spans="1:1034" s="3" customFormat="1" ht="88.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="19" t="s">
+      <c r="A15" s="57"/>
+      <c r="B15" s="57"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="19" t="s">
+      <c r="H15" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="19" t="s">
+      <c r="I15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="32" t="s">
-        <v>199</v>
+      <c r="J15" s="27" t="s">
+        <v>168</v>
       </c>
       <c r="K15" s="7"/>
-      <c r="L15" s="24" t="s">
-        <v>200</v>
-      </c>
+      <c r="L15" s="23"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
@@ -6718,37 +6729,35 @@
       <c r="S15" s="14"/>
     </row>
     <row r="16" spans="1:1034" s="3" customFormat="1" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>40</v>
+      <c r="C16" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="47" t="s">
+        <v>104</v>
       </c>
       <c r="G16" s="19" t="s">
         <v>10</v>
       </c>
       <c r="H16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I16" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K16" s="7">
-        <v>100</v>
-      </c>
+      <c r="J16" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K16" s="7"/>
       <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
@@ -6758,13 +6767,13 @@
       <c r="R16" s="7"/>
       <c r="S16" s="14"/>
     </row>
-    <row r="17" spans="1:19" s="3" customFormat="1" ht="47.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
+    <row r="17" spans="1:19" s="3" customFormat="1" ht="91" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="19" t="s">
         <v>24</v>
       </c>
@@ -6774,8 +6783,8 @@
       <c r="I17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="19" t="s">
-        <v>175</v>
+      <c r="J17" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="K17" s="7"/>
       <c r="L17"/>
@@ -6788,37 +6797,35 @@
       <c r="S17" s="14"/>
     </row>
     <row r="18" spans="1:19" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C18" s="38" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="F18" s="39" t="s">
-        <v>142</v>
+      <c r="C18" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="47" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="19" t="s">
         <v>10</v>
       </c>
       <c r="H18" s="19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K18" s="7">
-        <v>100</v>
-      </c>
+      <c r="J18" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K18" s="7"/>
       <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
@@ -6829,12 +6836,12 @@
       <c r="S18" s="14"/>
     </row>
     <row r="19" spans="1:19" s="3" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
       <c r="G19" s="19" t="s">
         <v>24</v>
       </c>
@@ -6845,7 +6852,7 @@
         <v>21</v>
       </c>
       <c r="J19" s="19" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="K19" s="7"/>
       <c r="L19"/>
@@ -6858,23 +6865,21 @@
       <c r="S19" s="14"/>
     </row>
     <row r="20" spans="1:19" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="F20" s="39" t="s">
-        <v>144</v>
+      <c r="A20" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47" t="s">
+        <v>213</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>214</v>
       </c>
       <c r="G20" s="19" t="s">
         <v>10</v>
@@ -6885,12 +6890,10 @@
       <c r="I20" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7">
-        <v>100</v>
-      </c>
+      <c r="J20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7"/>
       <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
@@ -6900,13 +6903,13 @@
       <c r="R20" s="7"/>
       <c r="S20" s="14"/>
     </row>
-    <row r="21" spans="1:19" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
+    <row r="21" spans="1:19" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="47"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
       <c r="G21" s="19" t="s">
         <v>24</v>
       </c>
@@ -6917,7 +6920,7 @@
         <v>21</v>
       </c>
       <c r="J21" s="19" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21"/>
@@ -6930,33 +6933,37 @@
       <c r="S21" s="14"/>
     </row>
     <row r="22" spans="1:19" s="3" customFormat="1" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D22" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>119</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="23" t="s">
+      <c r="D22" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="47" t="s">
+        <v>138</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="G22" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19" t="s">
-        <v>131</v>
-      </c>
-      <c r="K22"/>
+      <c r="H22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7"/>
       <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
@@ -6966,22 +6973,26 @@
       <c r="R22" s="7"/>
       <c r="S22" s="17"/>
     </row>
-    <row r="23" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="42"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="23" t="s">
+    <row r="23" spans="1:19" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="47"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="K23"/>
+      <c r="H23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7"/>
       <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
@@ -6992,39 +7003,33 @@
       <c r="S23" s="14"/>
     </row>
     <row r="24" spans="1:19" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="38" t="s">
+      <c r="B24" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F24" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="G24" s="19" t="s">
+      <c r="D24" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>46</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K24">
-        <v>100</v>
-      </c>
+      <c r="H24" s="22"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19" t="s">
+        <v>130</v>
+      </c>
+      <c r="K24"/>
       <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
@@ -7035,23 +7040,19 @@
       <c r="S24" s="14"/>
     </row>
     <row r="25" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="19" t="s">
+      <c r="A25" s="52"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J25" s="19" t="s">
-        <v>178</v>
+      <c r="H25" s="22"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K25"/>
       <c r="L25"/>
@@ -7064,39 +7065,37 @@
       <c r="S25" s="14"/>
     </row>
     <row r="26" spans="1:19" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B26" s="43" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D26" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="E26" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="F26" s="38" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="30" t="s">
+      <c r="D26" s="47" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="G26" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="30" t="s">
+      <c r="H26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I26" s="7" t="s">
+      <c r="I26" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J26" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K26">
-        <v>100</v>
-      </c>
+      <c r="J26" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
@@ -7107,23 +7106,23 @@
       <c r="S26" s="14"/>
     </row>
     <row r="27" spans="1:19" s="3" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="38"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="30" t="s">
+      <c r="A27" s="47"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H27" s="30" t="s">
+      <c r="H27" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="19" t="s">
         <v>21</v>
       </c>
       <c r="J27" s="19" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K27"/>
       <c r="L27"/>
@@ -7133,32 +7132,38 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="21"/>
+      <c r="S27" s="20"/>
     </row>
     <row r="28" spans="1:19" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="23" t="s">
+      <c r="B28" s="53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="23" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="31" t="s">
-        <v>131</v>
+      <c r="D28" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="47" t="s">
+        <v>140</v>
+      </c>
+      <c r="F28" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="G28" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K28"/>
       <c r="L28"/>
@@ -7171,39 +7176,25 @@
       <c r="S28" s="14"/>
     </row>
     <row r="29" spans="1:19" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="F29" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K29" s="7">
-        <v>100</v>
-      </c>
+      <c r="A29" s="47"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J29" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -7213,26 +7204,32 @@
       <c r="R29" s="7"/>
       <c r="S29" s="14"/>
     </row>
-    <row r="30" spans="1:19" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="38"/>
-      <c r="F30" s="38"/>
-      <c r="G30" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H30" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I30" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="K30" s="7"/>
+    <row r="30" spans="1:19" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F30" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -7243,23 +7240,23 @@
       <c r="S30" s="14"/>
     </row>
     <row r="31" spans="1:19" s="3" customFormat="1" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="39" t="s">
-        <v>147</v>
-      </c>
-      <c r="F31" s="38" t="s">
-        <v>148</v>
+      <c r="D31" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="F31" s="47" t="s">
+        <v>68</v>
       </c>
       <c r="G31" s="19" t="s">
         <v>10</v>
@@ -7270,12 +7267,10 @@
       <c r="I31" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K31" s="7">
-        <v>100</v>
-      </c>
+      <c r="J31" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K31" s="7"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -7286,12 +7281,12 @@
       <c r="S31" s="14"/>
     </row>
     <row r="32" spans="1:19" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
-      <c r="F32" s="38"/>
+      <c r="A32" s="47"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
       <c r="G32" s="19" t="s">
         <v>24</v>
       </c>
@@ -7302,12 +7297,10 @@
         <v>21</v>
       </c>
       <c r="J32" s="19" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="K32" s="7"/>
-      <c r="L32" s="24" t="s">
-        <v>182</v>
-      </c>
+      <c r="L32" s="23"/>
       <c r="M32"/>
       <c r="N32"/>
       <c r="O32"/>
@@ -7317,35 +7310,35 @@
       <c r="S32" s="14"/>
     </row>
     <row r="33" spans="1:19" s="3" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="35" t="s">
+      <c r="A33" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="35" t="s">
+      <c r="B33" s="47" t="s">
+        <v>54</v>
+      </c>
+      <c r="C33" s="47" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="36" t="s">
-        <v>183</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="D33" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="E33" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="F33" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="G33" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="19" t="s">
-        <v>206</v>
+      <c r="J33" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K33" s="7"/>
       <c r="L33"/>
@@ -7358,23 +7351,23 @@
       <c r="S33" s="14"/>
     </row>
     <row r="34" spans="1:19" s="3" customFormat="1" ht="109" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="35"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="36"/>
-      <c r="F34" s="36"/>
-      <c r="G34" t="s">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J34" s="33" t="s">
-        <v>205</v>
+      <c r="J34" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="K34" s="7"/>
       <c r="L34"/>
@@ -7384,32 +7377,38 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="25"/>
+      <c r="S34" s="24"/>
     </row>
-    <row r="35" spans="1:19" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A35" s="23" t="s">
+    <row r="35" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="23" t="s">
+      <c r="B35" s="45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C35" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E35" s="23" t="s">
-        <v>122</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="31" t="s">
-        <v>131</v>
+      <c r="D35" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="E35" s="46" t="s">
+        <v>176</v>
+      </c>
+      <c r="F35" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="G35" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" s="19" t="s">
+        <v>198</v>
       </c>
       <c r="K35" s="7"/>
       <c r="L35"/>
@@ -7421,30 +7420,24 @@
       <c r="R35" s="7"/>
       <c r="S35" s="14"/>
     </row>
-    <row r="36" spans="1:19" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A36" s="23" t="s">
-        <v>96</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>64</v>
-      </c>
-      <c r="E36" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="31" t="s">
-        <v>131</v>
+    <row r="36" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="45"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="45"/>
+      <c r="E36" s="46"/>
+      <c r="F36" s="46"/>
+      <c r="G36" t="s">
+        <v>24</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>21</v>
+      </c>
+      <c r="J36" s="32" t="s">
+        <v>197</v>
       </c>
       <c r="K36" s="7"/>
       <c r="L36"/>
@@ -7457,29 +7450,29 @@
       <c r="S36" s="14"/>
     </row>
     <row r="37" spans="1:19" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A37" s="23" t="s">
+      <c r="A37" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="23" t="s">
-        <v>58</v>
-      </c>
-      <c r="C37" s="23" t="s">
+      <c r="B37" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>123</v>
+      <c r="D37" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
-      <c r="J37" s="31" t="s">
-        <v>131</v>
+      <c r="J37" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K37" s="7"/>
       <c r="L37"/>
@@ -7492,29 +7485,29 @@
       <c r="S37" s="14"/>
     </row>
     <row r="38" spans="1:19" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C38" s="42" t="s">
+      <c r="B38" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="41" t="s">
-        <v>126</v>
+      <c r="D38" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>122</v>
       </c>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
-      <c r="J38" s="31" t="s">
-        <v>131</v>
+      <c r="J38" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K38" s="7"/>
       <c r="L38"/>
@@ -7527,17 +7520,29 @@
       <c r="S38" s="14"/>
     </row>
     <row r="39" spans="1:19" s="3" customFormat="1" ht="94.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="42"/>
-      <c r="B39" s="42"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="41"/>
+      <c r="A39" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="F39" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
-      <c r="J39" s="31" t="s">
-        <v>131</v>
+      <c r="J39" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K39" s="7"/>
       <c r="L39"/>
@@ -7549,24 +7554,30 @@
       <c r="R39" s="7"/>
       <c r="S39" s="14"/>
     </row>
-    <row r="40" spans="1:19" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A40" s="23" t="s">
+    <row r="40" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23" t="s">
-        <v>127</v>
+      <c r="B40" s="52" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="F40" s="51" t="s">
+        <v>125</v>
       </c>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
-      <c r="J40" s="31" t="s">
-        <v>131</v>
+      <c r="J40" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K40" s="7"/>
       <c r="L40"/>
@@ -7579,35 +7590,17 @@
       <c r="S40" s="14"/>
     </row>
     <row r="41" spans="1:19" s="3" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="38" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="D41" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="F41" s="38" t="s">
-        <v>150</v>
-      </c>
-      <c r="G41" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="29" t="s">
-        <v>118</v>
+      <c r="A41" s="52"/>
+      <c r="B41" s="52"/>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K41" s="7"/>
       <c r="L41"/>
@@ -7620,23 +7613,23 @@
       <c r="S41" s="5"/>
     </row>
     <row r="42" spans="1:19" s="3" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I42" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J42" s="19" t="s">
-        <v>185</v>
+      <c r="A42" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K42" s="7"/>
       <c r="L42"/>
@@ -7649,23 +7642,23 @@
       <c r="S42" s="14"/>
     </row>
     <row r="43" spans="1:19" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B43" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D43" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="E43" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="F43" s="40" t="s">
-        <v>110</v>
+      <c r="D43" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="E43" s="47" t="s">
+        <v>144</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="G43" s="19" t="s">
         <v>10</v>
@@ -7676,8 +7669,8 @@
       <c r="I43" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="29" t="s">
-        <v>118</v>
+      <c r="J43" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K43" s="7"/>
       <c r="L43"/>
@@ -7690,12 +7683,12 @@
       <c r="S43" s="16"/>
     </row>
     <row r="44" spans="1:19" s="3" customFormat="1" ht="27.65" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="40"/>
+      <c r="A44" s="47"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="47"/>
+      <c r="D44" s="47"/>
+      <c r="E44" s="47"/>
+      <c r="F44" s="47"/>
       <c r="G44" s="19" t="s">
         <v>24</v>
       </c>
@@ -7706,7 +7699,7 @@
         <v>21</v>
       </c>
       <c r="J44" s="19" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K44" s="7"/>
       <c r="L44"/>
@@ -7719,23 +7712,23 @@
       <c r="S44" s="14"/>
     </row>
     <row r="45" spans="1:19" s="3" customFormat="1" ht="72.650000000000006" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D45" s="38" t="s">
+      <c r="D45" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E45" s="38" t="s">
-        <v>151</v>
-      </c>
-      <c r="F45" s="38" t="s">
-        <v>152</v>
+      <c r="E45" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>110</v>
       </c>
       <c r="G45" s="19" t="s">
         <v>10</v>
@@ -7746,8 +7739,8 @@
       <c r="I45" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J45" s="29" t="s">
-        <v>118</v>
+      <c r="J45" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K45" s="7"/>
       <c r="L45"/>
@@ -7760,12 +7753,12 @@
       <c r="S45" s="14"/>
     </row>
     <row r="46" spans="1:19" s="3" customFormat="1" ht="62.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
-      <c r="F46" s="38"/>
+      <c r="A46" s="47"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="47"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="19" t="s">
         <v>24</v>
       </c>
@@ -7776,11 +7769,9 @@
         <v>21</v>
       </c>
       <c r="J46" s="19" t="s">
-        <v>187</v>
-      </c>
-      <c r="K46" s="7">
-        <v>100</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="K46" s="7"/>
       <c r="L46"/>
       <c r="M46"/>
       <c r="N46"/>
@@ -7791,23 +7782,23 @@
       <c r="S46" s="14"/>
     </row>
     <row r="47" spans="1:19" s="3" customFormat="1" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D47" s="38" t="s">
+      <c r="D47" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E47" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="F47" s="38" t="s">
-        <v>100</v>
+      <c r="E47" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="F47" s="47" t="s">
+        <v>147</v>
       </c>
       <c r="G47" s="19" t="s">
         <v>10</v>
@@ -7818,8 +7809,8 @@
       <c r="I47" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J47" s="29" t="s">
-        <v>118</v>
+      <c r="J47" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K47" s="7"/>
       <c r="L47"/>
@@ -7832,12 +7823,12 @@
       <c r="S47" s="14"/>
     </row>
     <row r="48" spans="1:19" s="3" customFormat="1" ht="77.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
-      <c r="C48" s="38"/>
-      <c r="D48" s="38"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="38"/>
+      <c r="A48" s="47"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="47"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="47"/>
+      <c r="F48" s="47"/>
       <c r="G48" s="19" t="s">
         <v>24</v>
       </c>
@@ -7847,12 +7838,10 @@
       <c r="I48" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="24" t="s">
-        <v>188</v>
-      </c>
-      <c r="K48" s="7">
-        <v>100</v>
-      </c>
+      <c r="J48" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="K48" s="7"/>
       <c r="L48"/>
       <c r="M48"/>
       <c r="N48"/>
@@ -7863,31 +7852,35 @@
       <c r="S48" s="14"/>
     </row>
     <row r="49" spans="1:1034" s="3" customFormat="1" ht="78" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="D49" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F49" s="42" t="s">
-        <v>99</v>
-      </c>
-      <c r="G49" s="23" t="s">
+      <c r="E49" s="47" t="s">
+        <v>78</v>
+      </c>
+      <c r="F49" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G49" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="23"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="31" t="s">
-        <v>131</v>
+      <c r="H49" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K49" s="7"/>
       <c r="L49"/>
@@ -7900,19 +7893,23 @@
       <c r="S49" s="14"/>
     </row>
     <row r="50" spans="1:1034" s="3" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="42"/>
-      <c r="F50" s="42"/>
-      <c r="G50" s="23" t="s">
+      <c r="A50" s="47"/>
+      <c r="B50" s="47"/>
+      <c r="C50" s="47"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="47"/>
+      <c r="F50" s="47"/>
+      <c r="G50" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="H50" s="23"/>
-      <c r="I50" s="23"/>
-      <c r="J50" s="31" t="s">
-        <v>131</v>
+      <c r="H50" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J50" s="23" t="s">
+        <v>181</v>
       </c>
       <c r="K50" s="7"/>
       <c r="L50"/>
@@ -7925,35 +7922,31 @@
       <c r="S50" s="14"/>
     </row>
     <row r="51" spans="1:1034" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="38" t="s">
+      <c r="A51" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B51" s="38" t="s">
+      <c r="B51" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C51" s="38" t="s">
+      <c r="C51" s="52" t="s">
         <v>49</v>
       </c>
-      <c r="D51" s="38" t="s">
+      <c r="D51" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="E51" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="F51" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="G51" s="19" t="s">
+      <c r="E51" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="G51" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="H51" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="29" t="s">
-        <v>118</v>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K51" s="7"/>
       <c r="L51"/>
@@ -7966,27 +7959,21 @@
       <c r="S51" s="14"/>
     </row>
     <row r="52" spans="1:1034" s="3" customFormat="1" ht="26.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
-      <c r="C52" s="38"/>
-      <c r="D52" s="38"/>
-      <c r="E52" s="38"/>
-      <c r="F52" s="40"/>
-      <c r="G52" s="19" t="s">
+      <c r="A52" s="47"/>
+      <c r="B52" s="47"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="H52" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J52" s="24" t="s">
-        <v>189</v>
-      </c>
-      <c r="K52" s="7">
-        <v>100</v>
-      </c>
+      <c r="H52" s="22"/>
+      <c r="I52" s="22"/>
+      <c r="J52" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="K52" s="7"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
@@ -7997,23 +7984,23 @@
       <c r="S52" s="14"/>
     </row>
     <row r="53" spans="1:1034" s="3" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="38" t="s">
+      <c r="A53" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B53" s="38" t="s">
+      <c r="B53" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="38" t="s">
+      <c r="C53" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="38" t="s">
+      <c r="D53" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="E53" s="38" t="s">
-        <v>153</v>
-      </c>
-      <c r="F53" s="38" t="s">
-        <v>101</v>
+      <c r="E53" s="47" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>109</v>
       </c>
       <c r="G53" s="19" t="s">
         <v>10</v>
@@ -8024,8 +8011,8 @@
       <c r="I53" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J53" s="29" t="s">
-        <v>118</v>
+      <c r="J53" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K53" s="7"/>
       <c r="L53"/>
@@ -8037,13 +8024,13 @@
       <c r="R53" s="7"/>
       <c r="S53" s="14"/>
     </row>
-    <row r="54" spans="1:1034" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
-      <c r="C54" s="38"/>
-      <c r="D54" s="38"/>
-      <c r="E54" s="38"/>
-      <c r="F54" s="38"/>
+    <row r="54" spans="1:1034" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="47"/>
+      <c r="B54" s="47"/>
+      <c r="C54" s="47"/>
+      <c r="D54" s="47"/>
+      <c r="E54" s="47"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="19" t="s">
         <v>24</v>
       </c>
@@ -8053,8 +8040,8 @@
       <c r="I54" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J54" s="24" t="s">
-        <v>190</v>
+      <c r="J54" s="23" t="s">
+        <v>182</v>
       </c>
       <c r="K54" s="7"/>
       <c r="L54"/>
@@ -8067,23 +8054,23 @@
       <c r="S54" s="14"/>
     </row>
     <row r="55" spans="1:1034" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="38" t="s">
+      <c r="B55" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C55" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D55" s="38" t="s">
-        <v>82</v>
-      </c>
-      <c r="E55" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="38" t="s">
-        <v>102</v>
+      <c r="D55" s="47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="F55" s="47" t="s">
+        <v>101</v>
       </c>
       <c r="G55" s="19" t="s">
         <v>10</v>
@@ -8094,8 +8081,8 @@
       <c r="I55" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J55" s="32" t="s">
-        <v>191</v>
+      <c r="J55" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K55" s="7"/>
       <c r="L55"/>
@@ -8108,12 +8095,12 @@
       <c r="S55" s="5"/>
     </row>
     <row r="56" spans="1:1034" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
-      <c r="C56" s="38"/>
-      <c r="D56" s="38"/>
-      <c r="E56" s="38"/>
-      <c r="F56" s="38"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="47"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="47"/>
+      <c r="F56" s="47"/>
       <c r="G56" s="19" t="s">
         <v>24</v>
       </c>
@@ -8123,12 +8110,10 @@
       <c r="I56" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J56" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="K56" s="7">
-        <v>100</v>
-      </c>
+      <c r="J56" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="K56" s="7"/>
       <c r="L56"/>
       <c r="M56"/>
       <c r="N56"/>
@@ -8139,23 +8124,23 @@
       <c r="S56" s="14"/>
     </row>
     <row r="57" spans="1:1034" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="38" t="s">
+      <c r="A57" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C57" s="38" t="s">
+      <c r="B57" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C57" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D57" s="46" t="s">
-        <v>84</v>
-      </c>
-      <c r="E57" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="38" t="s">
-        <v>106</v>
+      <c r="D57" s="47" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="F57" s="47" t="s">
+        <v>102</v>
       </c>
       <c r="G57" s="19" t="s">
         <v>10</v>
@@ -8166,8 +8151,8 @@
       <c r="I57" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J57" s="29" t="s">
-        <v>118</v>
+      <c r="J57" s="31" t="s">
+        <v>184</v>
       </c>
       <c r="K57" s="7"/>
       <c r="L57"/>
@@ -8180,12 +8165,12 @@
       <c r="S57" s="14"/>
     </row>
     <row r="58" spans="1:1034" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
-      <c r="C58" s="38"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="38"/>
-      <c r="F58" s="38"/>
+      <c r="A58" s="47"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="47"/>
+      <c r="D58" s="47"/>
+      <c r="E58" s="47"/>
+      <c r="F58" s="47"/>
       <c r="G58" s="19" t="s">
         <v>24</v>
       </c>
@@ -8196,11 +8181,9 @@
         <v>21</v>
       </c>
       <c r="J58" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="K58" s="7">
-        <v>100</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="K58" s="7"/>
       <c r="L58"/>
       <c r="M58"/>
       <c r="N58"/>
@@ -8211,23 +8194,23 @@
       <c r="S58" s="14"/>
     </row>
     <row r="59" spans="1:1034" s="3" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B59" s="38" t="s">
+      <c r="B59" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="C59" s="38" t="s">
+      <c r="C59" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="D59" s="46" t="s">
+      <c r="D59" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="E59" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="F59" s="38" t="s">
-        <v>107</v>
+      <c r="E59" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F59" s="47" t="s">
+        <v>106</v>
       </c>
       <c r="G59" s="19" t="s">
         <v>10</v>
@@ -8238,8 +8221,8 @@
       <c r="I59" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J59" s="29" t="s">
-        <v>118</v>
+      <c r="J59" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K59" s="7"/>
       <c r="L59"/>
@@ -8252,12 +8235,12 @@
       <c r="S59" s="14"/>
     </row>
     <row r="60" spans="1:1034" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
-      <c r="C60" s="38"/>
-      <c r="D60" s="46"/>
-      <c r="E60" s="38"/>
-      <c r="F60" s="38"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="47"/>
+      <c r="C60" s="47"/>
+      <c r="D60" s="56"/>
+      <c r="E60" s="47"/>
+      <c r="F60" s="47"/>
       <c r="G60" s="19" t="s">
         <v>24</v>
       </c>
@@ -8267,12 +8250,10 @@
       <c r="I60" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="J60" s="24" t="s">
-        <v>194</v>
-      </c>
-      <c r="K60" s="7">
-        <v>100</v>
-      </c>
+      <c r="J60" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="K60" s="7"/>
       <c r="L60"/>
       <c r="M60"/>
       <c r="N60"/>
@@ -8282,28 +8263,36 @@
       <c r="R60" s="7"/>
       <c r="S60" s="14"/>
     </row>
-    <row r="61" spans="1:1034" s="3" customFormat="1" ht="174" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="C61" s="23" t="s">
-        <v>98</v>
-      </c>
-      <c r="D61" s="23"/>
-      <c r="E61" s="23" t="s">
-        <v>155</v>
-      </c>
-      <c r="F61" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="G61" s="23"/>
-      <c r="H61" s="23"/>
-      <c r="I61" s="23"/>
-      <c r="J61" s="31" t="s">
-        <v>131</v>
+    <row r="61" spans="1:1034" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61" s="47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C61" s="47" t="s">
+        <v>49</v>
+      </c>
+      <c r="D61" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="F61" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="H61" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" s="28" t="s">
+        <v>117</v>
       </c>
       <c r="K61" s="7"/>
       <c r="L61"/>
@@ -8315,28 +8304,24 @@
       <c r="R61" s="7"/>
       <c r="S61" s="14"/>
     </row>
-    <row r="62" spans="1:1034" x14ac:dyDescent="0.35">
-      <c r="A62" s="50"/>
-      <c r="B62" s="50"/>
-      <c r="C62" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="D62" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E62" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="F62" s="47" t="s">
-        <v>159</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="7" t="s">
-        <v>209</v>
+    <row r="62" spans="1:1034" ht="29" x14ac:dyDescent="0.35">
+      <c r="A62" s="47"/>
+      <c r="B62" s="47"/>
+      <c r="C62" s="47"/>
+      <c r="D62" s="56"/>
+      <c r="E62" s="47"/>
+      <c r="F62" s="47"/>
+      <c r="G62" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J62" s="23" t="s">
+        <v>187</v>
       </c>
       <c r="K62" s="7"/>
       <c r="R62" s="7"/>
@@ -9358,19 +9343,27 @@
       <c r="AMT62" s="7"/>
     </row>
     <row r="63" spans="1:1034" ht="74.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="50"/>
-      <c r="B63" s="50"/>
-      <c r="C63" s="47"/>
-      <c r="D63" s="47"/>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="7" t="s">
-        <v>209</v>
+      <c r="A63" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D63" s="22"/>
+      <c r="E63" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="F63" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="G63" s="22"/>
+      <c r="H63" s="22"/>
+      <c r="I63" s="22"/>
+      <c r="J63" s="30" t="s">
+        <v>130</v>
       </c>
       <c r="K63" s="7"/>
       <c r="R63" s="7"/>
@@ -10392,27 +10385,27 @@
       <c r="AMT63" s="7"/>
     </row>
     <row r="64" spans="1:1034" x14ac:dyDescent="0.35">
-      <c r="A64" s="50"/>
-      <c r="B64" s="50"/>
-      <c r="C64" s="47" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="47" t="s">
-        <v>157</v>
-      </c>
-      <c r="E64" s="47" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="47" t="s">
-        <v>161</v>
-      </c>
-      <c r="G64" s="30" t="s">
+      <c r="A64" s="61"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="D64" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E64" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F64" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G64" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H64" s="24"/>
-      <c r="I64" s="24"/>
+      <c r="H64" s="23"/>
+      <c r="I64" s="23"/>
       <c r="J64" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K64" s="7"/>
       <c r="R64" s="7"/>
@@ -11434,19 +11427,19 @@
       <c r="AMT64" s="7"/>
     </row>
     <row r="65" spans="1:1034" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="50"/>
-      <c r="B65" s="50"/>
-      <c r="C65" s="47"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="47"/>
-      <c r="F65" s="47"/>
-      <c r="G65" s="30" t="s">
+      <c r="A65" s="61"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
+      <c r="E65" s="57"/>
+      <c r="F65" s="57"/>
+      <c r="G65" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
+      <c r="H65" s="23"/>
+      <c r="I65" s="23"/>
       <c r="J65" s="7" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="K65" s="7"/>
       <c r="R65" s="7"/>
@@ -12468,39 +12461,29 @@
       <c r="AMT65" s="7"/>
     </row>
     <row r="66" spans="1:1034" x14ac:dyDescent="0.35">
-      <c r="A66" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B66" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="C66" s="47" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="E66" s="47" t="s">
-        <v>163</v>
-      </c>
-      <c r="F66" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" s="30" t="s">
+      <c r="A66" s="61"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="D66" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="E66" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="F66" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="G66" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="30" t="s">
-        <v>16</v>
-      </c>
-      <c r="I66" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K66" s="7">
-        <v>100</v>
-      </c>
+      <c r="H66" s="23"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
@@ -13520,23 +13503,19 @@
       <c r="AMT66" s="7"/>
     </row>
     <row r="67" spans="1:1034" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="47"/>
-      <c r="B67" s="50"/>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
-      <c r="E67" s="47"/>
-      <c r="F67" s="47"/>
-      <c r="G67" s="30" t="s">
+      <c r="A67" s="61"/>
+      <c r="B67" s="61"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
+      <c r="F67" s="57"/>
+      <c r="G67" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H67" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="I67" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="H67" s="23"/>
+      <c r="I67" s="23"/>
       <c r="J67" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="K67" s="7"/>
       <c r="R67" s="7"/>
@@ -14558,29 +14537,37 @@
       <c r="AMT67" s="7"/>
     </row>
     <row r="68" spans="1:1034" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="50"/>
-      <c r="B68" s="50"/>
-      <c r="C68" s="47"/>
-      <c r="D68" s="47"/>
-      <c r="E68" s="47"/>
-      <c r="F68" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="G68" s="30" t="s">
+      <c r="A68" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G68" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H68" s="30" t="s">
+      <c r="H68" s="29" t="s">
         <v>16</v>
       </c>
       <c r="I68" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J68" s="29" t="s">
-        <v>118</v>
-      </c>
-      <c r="K68" s="7">
-        <v>100</v>
-      </c>
+      <c r="J68" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
@@ -15599,24 +15586,24 @@
       <c r="AMS68" s="7"/>
       <c r="AMT68" s="7"/>
     </row>
-    <row r="69" spans="1:1034" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A69" s="50"/>
-      <c r="B69" s="50"/>
-      <c r="C69" s="47"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="47"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="30" t="s">
+    <row r="69" spans="1:1034" x14ac:dyDescent="0.35">
+      <c r="A69" s="57"/>
+      <c r="B69" s="61"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
+      <c r="F69" s="57"/>
+      <c r="G69" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H69" s="30" t="s">
+      <c r="H69" s="29" t="s">
         <v>18</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J69" s="28" t="s">
-        <v>196</v>
+      <c r="J69" s="7" t="s">
+        <v>188</v>
       </c>
       <c r="K69" s="7"/>
       <c r="R69" s="7"/>
@@ -16637,34 +16624,28 @@
       <c r="AMS69" s="7"/>
       <c r="AMT69" s="7"/>
     </row>
-    <row r="70" spans="1:1034" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A70" s="7"/>
-      <c r="B70" s="7"/>
-      <c r="C70" s="30" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="30"/>
-      <c r="E70" s="30" t="s">
-        <v>167</v>
-      </c>
-      <c r="F70" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G70" s="30" t="s">
+    <row r="70" spans="1:1034" x14ac:dyDescent="0.35">
+      <c r="A70" s="61"/>
+      <c r="B70" s="61"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="G70" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="H70" s="30" t="s">
+      <c r="H70" s="29" t="s">
         <v>16</v>
       </c>
       <c r="I70" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="J70" s="53" t="s">
-        <v>204</v>
-      </c>
-      <c r="K70" s="7">
-        <v>0</v>
-      </c>
+      <c r="J70" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="K70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
@@ -17683,26 +17664,24 @@
       <c r="AMS70" s="7"/>
       <c r="AMT70" s="7"/>
     </row>
-    <row r="71" spans="1:1034" ht="87.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="50"/>
-      <c r="B71" s="50"/>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
-      <c r="E71" s="47"/>
-      <c r="F71" s="54" t="s">
-        <v>117</v>
-      </c>
-      <c r="G71" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="H71" s="30" t="s">
-        <v>16</v>
+    <row r="71" spans="1:1034" ht="87.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A71" s="61"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="63"/>
+      <c r="G71" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>18</v>
       </c>
       <c r="I71" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="7" t="s">
-        <v>212</v>
+        <v>21</v>
+      </c>
+      <c r="J71" s="27" t="s">
+        <v>189</v>
       </c>
       <c r="K71" s="7"/>
       <c r="R71" s="7"/>
@@ -18723,32 +18702,38 @@
       <c r="AMS71" s="7"/>
       <c r="AMT71" s="7"/>
     </row>
-    <row r="72" spans="1:1034" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A72" s="50"/>
-      <c r="B72" s="50"/>
-      <c r="C72" s="47"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="47"/>
-      <c r="F72" s="54"/>
-      <c r="G72" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H72" s="30" t="s">
-        <v>18</v>
+    <row r="72" spans="1:1034" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A72" s="7"/>
+      <c r="B72" s="7"/>
+      <c r="C72" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="F72" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="I72" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="J72" s="34" t="s">
-        <v>207</v>
+        <v>20</v>
+      </c>
+      <c r="J72" s="39" t="s">
+        <v>196</v>
       </c>
       <c r="K72" s="7"/>
-      <c r="L72" s="33"/>
-      <c r="M72" s="33"/>
-      <c r="N72" s="33"/>
-      <c r="O72" s="33"/>
-      <c r="P72" s="33"/>
-      <c r="Q72" s="33"/>
+      <c r="L72" s="32"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="32"/>
+      <c r="P72" s="32"/>
+      <c r="Q72" s="32"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
@@ -19767,26 +19752,26 @@
       <c r="AMS72" s="7"/>
       <c r="AMT72" s="7"/>
     </row>
-    <row r="73" spans="1:1034" ht="29" x14ac:dyDescent="0.35">
-      <c r="A73" s="7"/>
-      <c r="B73" s="7"/>
-      <c r="C73" s="30"/>
-      <c r="D73" s="30"/>
-      <c r="E73" s="30"/>
-      <c r="F73" s="55" t="s">
-        <v>168</v>
-      </c>
-      <c r="G73" s="30" t="s">
-        <v>24</v>
-      </c>
-      <c r="H73" s="30" t="s">
-        <v>18</v>
+    <row r="73" spans="1:1034" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="61"/>
+      <c r="B73" s="61"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="G73" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>16</v>
       </c>
       <c r="I73" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J73" s="28" t="s">
-        <v>197</v>
+        <v>20</v>
+      </c>
+      <c r="J73" s="7" t="s">
+        <v>203</v>
       </c>
       <c r="K73" s="7"/>
       <c r="R73" s="7"/>
@@ -20807,20 +20792,24 @@
       <c r="AMS73" s="7"/>
       <c r="AMT73" s="7"/>
     </row>
-    <row r="74" spans="1:1034" s="3" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A74" s="19"/>
-      <c r="B74" s="19"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
-      <c r="F74" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="19"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19" t="s">
-        <v>198</v>
+    <row r="74" spans="1:1034" s="3" customFormat="1" ht="64" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="61"/>
+      <c r="B74" s="61"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="J74" s="33" t="s">
+        <v>199</v>
       </c>
       <c r="K74" s="7"/>
       <c r="L74"/>
@@ -20832,17 +20821,27 @@
       <c r="R74" s="7"/>
       <c r="S74" s="14"/>
     </row>
-    <row r="75" spans="1:1034" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A75"/>
-      <c r="B75"/>
-      <c r="C75"/>
-      <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75"/>
-      <c r="G75"/>
-      <c r="H75"/>
-      <c r="I75"/>
-      <c r="J75"/>
+    <row r="75" spans="1:1034" s="3" customFormat="1" ht="44" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="7"/>
+      <c r="B75" s="7"/>
+      <c r="C75" s="29"/>
+      <c r="D75" s="29"/>
+      <c r="E75" s="29"/>
+      <c r="F75" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="G75" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J75" s="27" t="s">
+        <v>190</v>
+      </c>
       <c r="K75" s="7"/>
       <c r="L75"/>
       <c r="M75"/>
@@ -20853,26 +20852,20 @@
       <c r="R75" s="7"/>
       <c r="S75" s="14"/>
     </row>
-    <row r="76" spans="1:1034" s="3" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="45" t="s">
-        <v>201</v>
-      </c>
-      <c r="F76" s="44"/>
-      <c r="G76" t="s">
-        <v>10</v>
-      </c>
-      <c r="H76" t="s">
-        <v>16</v>
-      </c>
-      <c r="I76" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="33" t="s">
-        <v>211</v>
+    <row r="76" spans="1:1034" s="3" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="19"/>
+      <c r="F76" s="42" t="s">
+        <v>112</v>
+      </c>
+      <c r="G76" s="19"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19" t="s">
+        <v>191</v>
       </c>
       <c r="K76" s="7"/>
       <c r="L76"/>
@@ -20885,24 +20878,16 @@
       <c r="S76" s="14"/>
     </row>
     <row r="77" spans="1:1034" s="3" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="44"/>
-      <c r="B77" s="44"/>
-      <c r="C77" s="44"/>
-      <c r="D77" s="44"/>
-      <c r="E77" s="45"/>
-      <c r="F77" s="44"/>
-      <c r="G77" t="s">
-        <v>24</v>
-      </c>
-      <c r="H77" t="s">
-        <v>18</v>
-      </c>
-      <c r="I77" t="s">
-        <v>21</v>
-      </c>
-      <c r="J77" s="33" t="s">
-        <v>210</v>
-      </c>
+      <c r="A77"/>
+      <c r="B77"/>
+      <c r="C77"/>
+      <c r="D77"/>
+      <c r="E77"/>
+      <c r="F77"/>
+      <c r="G77"/>
+      <c r="H77"/>
+      <c r="I77"/>
+      <c r="J77"/>
       <c r="K77" s="7"/>
       <c r="L77"/>
       <c r="M77"/>
@@ -20914,16 +20899,14 @@
       <c r="S77" s="14"/>
     </row>
     <row r="78" spans="1:1034" s="3" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="35"/>
-      <c r="B78" s="35"/>
-      <c r="C78" s="35"/>
-      <c r="D78" s="35"/>
-      <c r="E78" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="F78" s="36" t="s">
-        <v>203</v>
-      </c>
+      <c r="A78" s="54"/>
+      <c r="B78" s="54"/>
+      <c r="C78" s="54"/>
+      <c r="D78" s="54"/>
+      <c r="E78" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="F78" s="54"/>
       <c r="G78" t="s">
         <v>10</v>
       </c>
@@ -20933,8 +20916,8 @@
       <c r="I78" t="s">
         <v>20</v>
       </c>
-      <c r="J78" s="52" t="s">
-        <v>214</v>
+      <c r="J78" s="32" t="s">
+        <v>212</v>
       </c>
       <c r="K78" s="7"/>
       <c r="L78"/>
@@ -20947,12 +20930,12 @@
       <c r="S78" s="16"/>
     </row>
     <row r="79" spans="1:1034" s="3" customFormat="1" ht="107" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="36"/>
-      <c r="F79" s="36"/>
+      <c r="A79" s="54"/>
+      <c r="B79" s="54"/>
+      <c r="C79" s="54"/>
+      <c r="D79" s="54"/>
+      <c r="E79" s="55"/>
+      <c r="F79" s="54"/>
       <c r="G79" t="s">
         <v>24</v>
       </c>
@@ -20962,8 +20945,8 @@
       <c r="I79" t="s">
         <v>21</v>
       </c>
-      <c r="J79" s="34" t="s">
-        <v>208</v>
+      <c r="J79" s="32" t="s">
+        <v>202</v>
       </c>
       <c r="K79" s="7"/>
       <c r="L79"/>
@@ -20975,17 +20958,29 @@
       <c r="R79" s="7"/>
       <c r="S79" s="16"/>
     </row>
-    <row r="80" spans="1:1034" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80"/>
-      <c r="B80"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-      <c r="I80"/>
-      <c r="J80"/>
+    <row r="80" spans="1:1034" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A80" s="45"/>
+      <c r="B80" s="45"/>
+      <c r="C80" s="45"/>
+      <c r="D80" s="45"/>
+      <c r="E80" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="F80" s="46" t="s">
+        <v>195</v>
+      </c>
+      <c r="G80" t="s">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" s="38" t="s">
+        <v>205</v>
+      </c>
       <c r="K80" s="7"/>
       <c r="L80"/>
       <c r="M80"/>
@@ -20996,17 +20991,25 @@
       <c r="R80" s="7"/>
       <c r="S80" s="14"/>
     </row>
-    <row r="81" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A81"/>
-      <c r="B81"/>
-      <c r="C81"/>
-      <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81"/>
-      <c r="G81"/>
-      <c r="H81"/>
-      <c r="I81"/>
-      <c r="J81"/>
+    <row r="81" spans="1:19" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="45"/>
+      <c r="B81" s="45"/>
+      <c r="C81" s="45"/>
+      <c r="D81" s="45"/>
+      <c r="E81" s="46"/>
+      <c r="F81" s="46"/>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>21</v>
+      </c>
+      <c r="J81" s="33" t="s">
+        <v>200</v>
+      </c>
       <c r="K81" s="7"/>
       <c r="L81"/>
       <c r="M81"/>
@@ -21017,17 +21020,33 @@
       <c r="R81" s="7"/>
       <c r="S81" s="14"/>
     </row>
-    <row r="82" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="3" customFormat="1" ht="95.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82"/>
       <c r="B82"/>
-      <c r="C82"/>
-      <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
-      <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
+      <c r="C82" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="D82" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="E82" s="43" t="s">
+        <v>217</v>
+      </c>
+      <c r="F82" s="43" t="s">
+        <v>218</v>
+      </c>
+      <c r="G82" t="s">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" t="s">
+        <v>20</v>
+      </c>
+      <c r="J82" t="s">
+        <v>219</v>
+      </c>
       <c r="K82" s="7"/>
       <c r="L82"/>
       <c r="M82"/>
@@ -21102,16 +21121,16 @@
       <c r="S85" s="14"/>
     </row>
     <row r="86" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="19"/>
-      <c r="B86" s="19"/>
-      <c r="C86" s="19"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
-      <c r="F86" s="19"/>
-      <c r="G86" s="19"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
+      <c r="A86"/>
+      <c r="B86"/>
+      <c r="C86"/>
+      <c r="D86"/>
+      <c r="E86"/>
+      <c r="F86"/>
+      <c r="G86"/>
+      <c r="H86"/>
+      <c r="I86"/>
+      <c r="J86"/>
       <c r="K86" s="7"/>
       <c r="L86"/>
       <c r="M86"/>
@@ -21123,16 +21142,16 @@
       <c r="S86" s="14"/>
     </row>
     <row r="87" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="19"/>
-      <c r="B87" s="19"/>
-      <c r="C87" s="19"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
-      <c r="F87" s="19"/>
-      <c r="G87" s="19"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
+      <c r="A87"/>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87"/>
+      <c r="F87"/>
+      <c r="G87"/>
+      <c r="H87"/>
+      <c r="I87"/>
+      <c r="J87"/>
       <c r="K87" s="7"/>
       <c r="L87"/>
       <c r="M87"/>
@@ -21627,18 +21646,16 @@
       <c r="S110" s="14"/>
     </row>
     <row r="111" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="18"/>
-      <c r="B111" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C111" s="37"/>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="37"/>
-      <c r="J111" s="37"/>
+      <c r="A111" s="19"/>
+      <c r="B111" s="19"/>
+      <c r="C111" s="19"/>
+      <c r="D111" s="19"/>
+      <c r="E111" s="19"/>
+      <c r="F111" s="19"/>
+      <c r="G111" s="19"/>
+      <c r="H111" s="19"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="19"/>
       <c r="K111" s="7"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -21653,233 +21670,257 @@
       <c r="K112" s="7"/>
       <c r="R112" s="7"/>
     </row>
-    <row r="113" spans="11:18" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A113" s="18"/>
+      <c r="B113" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="48"/>
+      <c r="I113" s="48"/>
+      <c r="J113" s="48"/>
       <c r="K113" s="7"/>
       <c r="R113" s="7"/>
     </row>
-    <row r="114" spans="11:18" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K114" s="7"/>
       <c r="R114" s="7"/>
     </row>
-    <row r="115" spans="11:18" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K115" s="7"/>
       <c r="R115" s="7"/>
     </row>
-    <row r="116" spans="11:18" x14ac:dyDescent="0.35">
-      <c r="K116" s="21"/>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K116" s="7"/>
       <c r="R116" s="6"/>
     </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="K118" s="20"/>
+    </row>
   </sheetData>
-  <mergeCells count="205">
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:C72"/>
-    <mergeCell ref="D71:D72"/>
-    <mergeCell ref="E71:E72"/>
+  <mergeCells count="211">
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:C74"/>
+    <mergeCell ref="D73:D74"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="B70:B71"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="B64:B65"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
     <mergeCell ref="A66:A67"/>
     <mergeCell ref="B66:B67"/>
     <mergeCell ref="C66:C67"/>
     <mergeCell ref="D66:D67"/>
     <mergeCell ref="E66:E67"/>
     <mergeCell ref="F66:F67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:E5"/>
     <mergeCell ref="F4:F5"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="E59:E60"/>
     <mergeCell ref="F59:F60"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
     <mergeCell ref="A51:A52"/>
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="C51:C52"/>
     <mergeCell ref="D51:D52"/>
     <mergeCell ref="E51:E52"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
     <mergeCell ref="A57:A58"/>
     <mergeCell ref="B57:B58"/>
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="D57:D58"/>
     <mergeCell ref="E57:E58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:C56"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F26:F27"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D31:D32"/>
     <mergeCell ref="E31:E32"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F22:F23"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="D24:D25"/>
     <mergeCell ref="E24:E25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F24:F25"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="E20:E21"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F20:F21"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="B111:J111"/>
+    <mergeCell ref="B113:J113"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="C10:C11"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="F38:F39"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A80:A81"/>
+    <mergeCell ref="B80:B81"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B43:B44"/>
     <mergeCell ref="C43:C44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="E43:E44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="K2 K6 K8 K10 K14 K16 K18 K20 K22 K24 K26:K27 K31 K35 K37 K46 K48 K50 K52 K54 K56 K58 K60 K74 K76 K80 K82 K84 K86 K88 K29">
-    <cfRule type="colorScale" priority="6">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="K6 K2 K10 K12 K16 K18 K20 K22 K24 K26 K28:K29 K33 K37 K39 K48 K50 K52 K54 K56 K58 K60 K62 K76 K78 K82 K84 K86 K88 K90 K31">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="num" val="0"/>
         <cfvo type="percentile" val="50"/>
@@ -21891,6 +21932,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="num" val="100"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -21902,7 +21955,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12">
+  <conditionalFormatting sqref="K66 K64 K68 K70 K72">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -21914,7 +21967,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62 K64 K66 K68 K70">
+  <conditionalFormatting sqref="K8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="num" val="0"/>
@@ -21936,19 +21989,19 @@
           <x14:formula1>
             <xm:f>DONOTDELETE!$A$3:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G3 G6:G11 G14:G25 G28:G61 G74:G110</xm:sqref>
+          <xm:sqref>G2:G3 G16:G27 G30:G63 G76:G112 G6:G13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1C1B4F20-53D1-4A1B-832B-6E8BECAAA5F1}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$C$3:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H3 H6:H11 H14:H25 H28:H65 H74:H110</xm:sqref>
+          <xm:sqref>H2:H3 H16:H27 H30:H67 H76:H112 H6:H13</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{79222D68-7559-4143-9FDD-D11E5D5A8DF0}">
           <x14:formula1>
             <xm:f>DONOTDELETE!$E$3:$E$6</xm:f>
           </x14:formula1>
-          <xm:sqref>I2:I3 I6:I11 I14:I25 I28:I65 I74:I110</xm:sqref>
+          <xm:sqref>I2:I3 I16:I27 I30:I67 I76:I112 I6:I13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
